--- a/Excels/Lista1.xlsx
+++ b/Excels/Lista1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\UnificadorDeTelefonos\UnificadorTelefonos\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CD560-EFFC-4A38-87B6-5A4A2762FAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7BFDCF-68F2-419F-8750-BD3C837A6C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{84479771-C07B-486D-AE1E-9C14184AEFD7}"/>
   </bookViews>
@@ -443,69 +443,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC64540-7719-42EF-8234-DD2ACAAFD174}">
-  <dimension ref="I1:I11"/>
+  <dimension ref="H12:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="1" t="s">
+    <row r="12" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+    <row r="13" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="14" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+    <row r="15" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="16" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
         <v>10</v>
       </c>
     </row>
